--- a/TestResults/V175_Trace_seg1.xlsx
+++ b/TestResults/V175_Trace_seg1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1020" windowWidth="24195" windowHeight="10140"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="23715" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="V175_Trace_seg1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Filter Size</t>
   </si>
@@ -27,11 +27,21 @@
   <si>
     <t>1ms tick, 2ms task</t>
   </si>
+  <si>
+    <t>1.5ms tick / task - optimised</t>
+  </si>
+  <si>
+    <t>1ms tick / task - optimised</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,8 +476,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -510,52 +521,55 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,274 +868,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>103500</v>
+      </c>
+      <c r="C2">
+        <v>36845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>127942</v>
+      </c>
+      <c r="C3">
+        <v>12403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>130208</v>
+      </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>103500</v>
-      </c>
-      <c r="E4">
-        <v>36845</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+        <v>10137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>130230</v>
+      </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>127942</v>
-      </c>
-      <c r="E5">
-        <v>12403</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+        <v>10115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>130230</v>
+      </c>
       <c r="C6">
+        <v>10115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>136016</v>
+      </c>
+      <c r="C7">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>136434</v>
+      </c>
+      <c r="C8">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>137050</v>
+      </c>
+      <c r="C9">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>137050</v>
+      </c>
+      <c r="C10">
+        <v>3295</v>
+      </c>
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>130208</v>
-      </c>
-      <c r="E6">
-        <v>10137</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7">
+      <c r="G10" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>130230</v>
-      </c>
-      <c r="E7">
-        <v>10115</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="I10" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>130230</v>
-      </c>
-      <c r="E8">
-        <v>10115</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>136016</v>
-      </c>
-      <c r="E9">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>136434</v>
-      </c>
-      <c r="E10">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>137050</v>
+      </c>
       <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>137050</v>
       </c>
-      <c r="E11">
+      <c r="C12">
         <v>3295</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>137050</v>
       </c>
-      <c r="E12">
+      <c r="C13">
         <v>3295</v>
       </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>10</v>
-      </c>
       <c r="D13">
-        <v>137050</v>
+        <f>SUM(B13:C13)</f>
+        <v>140345</v>
       </c>
       <c r="E13">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+        <v>135089</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.96254943199999998</v>
+      </c>
+      <c r="G13">
+        <v>137049</v>
+      </c>
+      <c r="H13" s="2">
+        <f>G13/D13</f>
+        <v>0.97651501656631867</v>
+      </c>
+      <c r="I13">
+        <v>137049</v>
+      </c>
+      <c r="J13" s="2">
+        <f>I13/D13</f>
+        <v>0.97651501656631867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>137065</v>
+      </c>
       <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>137050</v>
-      </c>
-      <c r="E14">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>137065</v>
+      </c>
       <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>137050</v>
-      </c>
-      <c r="E15">
-        <v>3295</v>
-      </c>
-      <c r="G15">
-        <v>135089</v>
-      </c>
-      <c r="H15">
-        <f>G15/(D15+E15)</f>
-        <v>0.96254943175745489</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>137065</v>
+      </c>
       <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>137065</v>
       </c>
-      <c r="E16">
+      <c r="C17">
         <v>3280</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>137065</v>
       </c>
-      <c r="E17">
+      <c r="C18">
         <v>3280</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>137065</v>
       </c>
-      <c r="E18">
+      <c r="C19">
         <v>3280</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>137065</v>
       </c>
-      <c r="E19">
+      <c r="C20">
         <v>3280</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>137065</v>
-      </c>
-      <c r="E20">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>137080</v>
+      </c>
       <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>137065</v>
-      </c>
-      <c r="E21">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>137080</v>
+      </c>
       <c r="C22">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>137065</v>
-      </c>
-      <c r="E22">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>137080</v>
+      </c>
       <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>137080</v>
-      </c>
-      <c r="E23">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>137080</v>
-      </c>
-      <c r="E24">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>137080</v>
-      </c>
-      <c r="E25">
         <v>3265</v>
       </c>
     </row>

--- a/TestResults/V175_Trace_seg1.xlsx
+++ b/TestResults/V175_Trace_seg1.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="V175_Trace_seg1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -39,8 +39,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -523,8 +523,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -871,7 +871,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
